--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Dkk2-Kremen2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Dkk2-Kremen2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,16 +76,10 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
-    <t>ECs</t>
-  </si>
-  <si>
     <t>FAPs</t>
   </si>
   <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
   <si>
     <t>Dkk2</t>
@@ -449,7 +443,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +516,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>7.119666333333334</v>
+      </c>
+      <c r="H2">
+        <v>21.358999</v>
+      </c>
+      <c r="I2">
+        <v>0.9962669025230755</v>
+      </c>
+      <c r="J2">
+        <v>0.9962669025230755</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G2">
-        <v>0.002991666666666667</v>
-      </c>
-      <c r="H2">
-        <v>0.008975</v>
-      </c>
-      <c r="I2">
-        <v>0.0004153486577782517</v>
-      </c>
-      <c r="J2">
-        <v>0.0004153486577782517</v>
-      </c>
-      <c r="K2">
-        <v>2</v>
-      </c>
-      <c r="L2">
-        <v>0.6666666666666666</v>
-      </c>
       <c r="M2">
-        <v>0.2471363333333333</v>
+        <v>0.03371666666666667</v>
       </c>
       <c r="N2">
-        <v>0.741409</v>
+        <v>0.10115</v>
       </c>
       <c r="O2">
-        <v>0.3260875684472104</v>
+        <v>0.5286097276732288</v>
       </c>
       <c r="P2">
-        <v>0.3260875684472104</v>
+        <v>0.5286097276732288</v>
       </c>
       <c r="Q2">
-        <v>0.0007393495305555556</v>
+        <v>0.2400514165388889</v>
       </c>
       <c r="R2">
-        <v>0.006654145775</v>
+        <v>2.16046274885</v>
       </c>
       <c r="S2">
-        <v>0.0001354400338727227</v>
+        <v>0.5266363760325741</v>
       </c>
       <c r="T2">
-        <v>0.0001354400338727227</v>
+        <v>0.5266363760325741</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,31 +578,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.002991666666666667</v>
+        <v>7.119666333333334</v>
       </c>
       <c r="H3">
-        <v>0.008975</v>
+        <v>21.358999</v>
       </c>
       <c r="I3">
-        <v>0.0004153486577782517</v>
+        <v>0.9962669025230755</v>
       </c>
       <c r="J3">
-        <v>0.0004153486577782517</v>
+        <v>0.9962669025230755</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -617,42 +611,42 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.03371666666666667</v>
+        <v>0.030067</v>
       </c>
       <c r="N3">
-        <v>0.10115</v>
+        <v>0.090201</v>
       </c>
       <c r="O3">
-        <v>0.04448793789721373</v>
+        <v>0.4713902723267712</v>
       </c>
       <c r="P3">
-        <v>0.04448793789721373</v>
+        <v>0.4713902723267713</v>
       </c>
       <c r="Q3">
-        <v>0.0001008690277777778</v>
+        <v>0.2140670076443333</v>
       </c>
       <c r="R3">
-        <v>0.00090782125</v>
+        <v>1.926603068799</v>
       </c>
       <c r="S3">
-        <v>1.847800529292994E-05</v>
+        <v>0.4696305264905014</v>
       </c>
       <c r="T3">
-        <v>1.847800529292994E-05</v>
+        <v>0.4696305264905015</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
         <v>20</v>
-      </c>
-      <c r="B4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" t="s">
-        <v>22</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -661,46 +655,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.002991666666666667</v>
+        <v>0.026678</v>
       </c>
       <c r="H4">
-        <v>0.008975</v>
+        <v>0.08003399999999999</v>
       </c>
       <c r="I4">
-        <v>0.0004153486577782517</v>
+        <v>0.003733097476924448</v>
       </c>
       <c r="J4">
-        <v>0.0004153486577782517</v>
+        <v>0.003733097476924448</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.4770303333333333</v>
+        <v>0.03371666666666667</v>
       </c>
       <c r="N4">
-        <v>1.431091</v>
+        <v>0.10115</v>
       </c>
       <c r="O4">
-        <v>0.6294244936555758</v>
+        <v>0.5286097276732288</v>
       </c>
       <c r="P4">
-        <v>0.6294244936555758</v>
+        <v>0.5286097276732288</v>
       </c>
       <c r="Q4">
-        <v>0.001427115747222222</v>
+        <v>0.0008994932333333332</v>
       </c>
       <c r="R4">
-        <v>0.012844041725</v>
+        <v>0.008095439099999999</v>
       </c>
       <c r="S4">
-        <v>0.0002614306186125992</v>
+        <v>0.00197335164065465</v>
       </c>
       <c r="T4">
-        <v>0.0002614306186125992</v>
+        <v>0.00197335164065465</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,557 +702,61 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>7.119666333333332</v>
+        <v>0.026678</v>
       </c>
       <c r="H5">
-        <v>21.358999</v>
+        <v>0.08003399999999999</v>
       </c>
       <c r="I5">
-        <v>0.9884603416308657</v>
+        <v>0.003733097476924448</v>
       </c>
       <c r="J5">
-        <v>0.9884603416308657</v>
+        <v>0.003733097476924448</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.2471363333333333</v>
+        <v>0.030067</v>
       </c>
       <c r="N5">
-        <v>0.741409</v>
+        <v>0.090201</v>
       </c>
       <c r="O5">
-        <v>0.3260875684472104</v>
+        <v>0.4713902723267712</v>
       </c>
       <c r="P5">
-        <v>0.3260875684472104</v>
+        <v>0.4713902723267713</v>
       </c>
       <c r="Q5">
-        <v>1.759528232176777</v>
+        <v>0.000802127426</v>
       </c>
       <c r="R5">
-        <v>15.835754089591</v>
+        <v>0.007219146833999999</v>
       </c>
       <c r="S5">
-        <v>0.3223246293089079</v>
+        <v>0.001759745836269798</v>
       </c>
       <c r="T5">
-        <v>0.3223246293089079</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6">
-        <v>3</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>7.119666333333332</v>
-      </c>
-      <c r="H6">
-        <v>21.358999</v>
-      </c>
-      <c r="I6">
-        <v>0.9884603416308657</v>
-      </c>
-      <c r="J6">
-        <v>0.9884603416308657</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M6">
-        <v>0.03371666666666667</v>
-      </c>
-      <c r="N6">
-        <v>0.10115</v>
-      </c>
-      <c r="O6">
-        <v>0.04448793789721373</v>
-      </c>
-      <c r="P6">
-        <v>0.04448793789721373</v>
-      </c>
-      <c r="Q6">
-        <v>0.2400514165388888</v>
-      </c>
-      <c r="R6">
-        <v>2.16046274885</v>
-      </c>
-      <c r="S6">
-        <v>0.04397456229233263</v>
-      </c>
-      <c r="T6">
-        <v>0.04397456229233263</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7">
-        <v>3</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>7.119666333333332</v>
-      </c>
-      <c r="H7">
-        <v>21.358999</v>
-      </c>
-      <c r="I7">
-        <v>0.9884603416308657</v>
-      </c>
-      <c r="J7">
-        <v>0.9884603416308657</v>
-      </c>
-      <c r="K7">
-        <v>3</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>0.4770303333333333</v>
-      </c>
-      <c r="N7">
-        <v>1.431091</v>
-      </c>
-      <c r="O7">
-        <v>0.6294244936555758</v>
-      </c>
-      <c r="P7">
-        <v>0.6294244936555758</v>
-      </c>
-      <c r="Q7">
-        <v>3.39629680421211</v>
-      </c>
-      <c r="R7">
-        <v>30.566671237909</v>
-      </c>
-      <c r="S7">
-        <v>0.6221611500296251</v>
-      </c>
-      <c r="T7">
-        <v>0.6221611500296251</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G8">
-        <v>0.05260399999999999</v>
-      </c>
-      <c r="H8">
-        <v>0.157812</v>
-      </c>
-      <c r="I8">
-        <v>0.007303287173404061</v>
-      </c>
-      <c r="J8">
-        <v>0.007303287173404061</v>
-      </c>
-      <c r="K8">
-        <v>2</v>
-      </c>
-      <c r="L8">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M8">
-        <v>0.2471363333333333</v>
-      </c>
-      <c r="N8">
-        <v>0.741409</v>
-      </c>
-      <c r="O8">
-        <v>0.3260875684472104</v>
-      </c>
-      <c r="P8">
-        <v>0.3260875684472104</v>
-      </c>
-      <c r="Q8">
-        <v>0.01300035967866666</v>
-      </c>
-      <c r="R8">
-        <v>0.117003237108</v>
-      </c>
-      <c r="S8">
-        <v>0.002381511156047031</v>
-      </c>
-      <c r="T8">
-        <v>0.002381511156047031</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G9">
-        <v>0.05260399999999999</v>
-      </c>
-      <c r="H9">
-        <v>0.157812</v>
-      </c>
-      <c r="I9">
-        <v>0.007303287173404061</v>
-      </c>
-      <c r="J9">
-        <v>0.007303287173404061</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M9">
-        <v>0.03371666666666667</v>
-      </c>
-      <c r="N9">
-        <v>0.10115</v>
-      </c>
-      <c r="O9">
-        <v>0.04448793789721373</v>
-      </c>
-      <c r="P9">
-        <v>0.04448793789721373</v>
-      </c>
-      <c r="Q9">
-        <v>0.001773631533333333</v>
-      </c>
-      <c r="R9">
-        <v>0.0159626838</v>
-      </c>
-      <c r="S9">
-        <v>0.0003249081862159175</v>
-      </c>
-      <c r="T9">
-        <v>0.0003249081862159175</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G10">
-        <v>0.05260399999999999</v>
-      </c>
-      <c r="H10">
-        <v>0.157812</v>
-      </c>
-      <c r="I10">
-        <v>0.007303287173404061</v>
-      </c>
-      <c r="J10">
-        <v>0.007303287173404061</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>0.4770303333333333</v>
-      </c>
-      <c r="N10">
-        <v>1.431091</v>
-      </c>
-      <c r="O10">
-        <v>0.6294244936555758</v>
-      </c>
-      <c r="P10">
-        <v>0.6294244936555758</v>
-      </c>
-      <c r="Q10">
-        <v>0.02509370365466666</v>
-      </c>
-      <c r="R10">
-        <v>0.225843332892</v>
-      </c>
-      <c r="S10">
-        <v>0.004596867831141113</v>
-      </c>
-      <c r="T10">
-        <v>0.004596867831141113</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G11">
-        <v>0.027522</v>
-      </c>
-      <c r="H11">
-        <v>0.082566</v>
-      </c>
-      <c r="I11">
-        <v>0.003821022537951993</v>
-      </c>
-      <c r="J11">
-        <v>0.003821022537951993</v>
-      </c>
-      <c r="K11">
-        <v>2</v>
-      </c>
-      <c r="L11">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M11">
-        <v>0.2471363333333333</v>
-      </c>
-      <c r="N11">
-        <v>0.741409</v>
-      </c>
-      <c r="O11">
-        <v>0.3260875684472104</v>
-      </c>
-      <c r="P11">
-        <v>0.3260875684472104</v>
-      </c>
-      <c r="Q11">
-        <v>0.006801686166</v>
-      </c>
-      <c r="R11">
-        <v>0.061215175494</v>
-      </c>
-      <c r="S11">
-        <v>0.001245987948382754</v>
-      </c>
-      <c r="T11">
-        <v>0.001245987948382754</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G12">
-        <v>0.027522</v>
-      </c>
-      <c r="H12">
-        <v>0.082566</v>
-      </c>
-      <c r="I12">
-        <v>0.003821022537951993</v>
-      </c>
-      <c r="J12">
-        <v>0.003821022537951993</v>
-      </c>
-      <c r="K12">
-        <v>1</v>
-      </c>
-      <c r="L12">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M12">
-        <v>0.03371666666666667</v>
-      </c>
-      <c r="N12">
-        <v>0.10115</v>
-      </c>
-      <c r="O12">
-        <v>0.04448793789721373</v>
-      </c>
-      <c r="P12">
-        <v>0.04448793789721373</v>
-      </c>
-      <c r="Q12">
-        <v>0.0009279501</v>
-      </c>
-      <c r="R12">
-        <v>0.008351550900000001</v>
-      </c>
-      <c r="S12">
-        <v>0.0001699894133722623</v>
-      </c>
-      <c r="T12">
-        <v>0.0001699894133722623</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G13">
-        <v>0.027522</v>
-      </c>
-      <c r="H13">
-        <v>0.082566</v>
-      </c>
-      <c r="I13">
-        <v>0.003821022537951993</v>
-      </c>
-      <c r="J13">
-        <v>0.003821022537951993</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>0.4770303333333333</v>
-      </c>
-      <c r="N13">
-        <v>1.431091</v>
-      </c>
-      <c r="O13">
-        <v>0.6294244936555758</v>
-      </c>
-      <c r="P13">
-        <v>0.6294244936555758</v>
-      </c>
-      <c r="Q13">
-        <v>0.013128828834</v>
-      </c>
-      <c r="R13">
-        <v>0.118159459506</v>
-      </c>
-      <c r="S13">
-        <v>0.002405045176196976</v>
-      </c>
-      <c r="T13">
-        <v>0.002405045176196976</v>
+        <v>0.001759745836269798</v>
       </c>
     </row>
   </sheetData>
